--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-SonDang.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-SonDang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Week</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Dang Huy Son</t>
   </si>
 </sst>
 </file>
@@ -869,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -907,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -1951,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-SonDang.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-SonDang.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
-    <sheet name="SAD" sheetId="2" r:id="rId2"/>
-    <sheet name="Other" sheetId="3" r:id="rId3"/>
+    <sheet name="SAD-Rework" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$J$6</definedName>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -71,18 +70,12 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>Do Minh Tam</t>
-  </si>
-  <si>
     <t>Time Recording Log For:    SEP Project</t>
   </si>
   <si>
     <t>Time Recording Log For:    Others Project</t>
   </si>
   <si>
-    <t>Time Recording Log For:    SAD Final Project</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -107,28 +100,10 @@
     <t>CM</t>
   </si>
   <si>
-    <t>Requirement &amp; Analysis</t>
-  </si>
-  <si>
-    <t>Architecture Design</t>
-  </si>
-  <si>
-    <t>Implement</t>
-  </si>
-  <si>
-    <t>System Test</t>
-  </si>
-  <si>
-    <t>Deployment &amp; Maintenance</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Report</t>
-  </si>
-  <si>
-    <t>Le Thi Bich Van</t>
   </si>
   <si>
     <t>Status</t>
@@ -144,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,17 +137,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -294,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,102 +340,19 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,28 +373,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,33 +428,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -895,7 +749,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -910,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -945,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>5</v>
@@ -954,18 +808,18 @@
         <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="86">
+      <c r="A7" s="55">
         <v>1</v>
       </c>
       <c r="B7" s="14"/>
@@ -981,13 +835,13 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26">
@@ -1000,13 +854,13 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26">
@@ -1019,13 +873,13 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="L9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26">
@@ -1040,8 +894,8 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26">
@@ -1054,12 +908,12 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="86">
+      <c r="A12" s="55">
         <v>2</v>
       </c>
       <c r="B12" s="14"/>
@@ -1075,13 +929,13 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26">
@@ -1094,13 +948,13 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26">
@@ -1113,13 +967,13 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="87"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26">
@@ -1137,8 +991,8 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26">
@@ -1156,8 +1010,8 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26">
@@ -1172,8 +1026,8 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26">
@@ -1188,7 +1042,7 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="14"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1204,8 +1058,8 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26">
@@ -1220,7 +1074,7 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="14"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -1952,1028 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32"/>
-    <col min="3" max="3" width="10.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="34"/>
-    <col min="6" max="6" width="22.7109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="22" style="32" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="32"/>
-    <col min="12" max="12" width="26" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13">
-      <c r="E2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="D3" s="33"/>
-      <c r="L3" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="36">
-        <v>41050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="C5" s="37"/>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A6" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="95">
-        <v>1</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57">
-        <f t="shared" ref="E7:E9" si="0">D7-C7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="L7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="L9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="95">
-        <v>2</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57">
-        <f>D10-C10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="L10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57">
-        <f t="shared" ref="E11:E63" si="1">D11-C11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="L11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="L13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="L14" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="M29" s="40"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="M30" s="40"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="M31" s="40"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="M32" s="40"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="M33" s="40"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="M34" s="40"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="M40" s="40"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="M42" s="40"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="M43" s="40"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="M44" s="40"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="M49" s="40"/>
-    </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-    </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="41"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-    </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="41"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="M54" s="40"/>
-    </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="M55" s="40"/>
-    </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="41"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="M56" s="40"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="M57" s="40"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="M58" s="40"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="41"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="M59" s="40"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-    </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A63" s="44"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2995,7 +1831,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -3010,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -3045,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>5</v>
@@ -3066,7 +1902,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="62"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -3079,7 +1915,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="62"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3094,7 +1930,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="62"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3104,28 +1940,28 @@
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3136,7 +1972,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="62"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3148,11 +1984,11 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="12"/>
@@ -3164,9 +2000,9 @@
         <v>2</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
@@ -3174,35 +2010,35 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="62"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3215,7 +2051,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -3230,7 +2066,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="62"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -3240,28 +2076,28 @@
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3269,7 +2105,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="62"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -3278,11 +2114,11 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
@@ -3294,9 +2130,9 @@
         <v>4</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
@@ -3304,35 +2140,35 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="16"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="62"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -3345,7 +2181,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="62"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -3360,7 +2196,7 @@
       <c r="B29" s="16"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="62"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -3370,28 +2206,28 @@
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3399,7 +2235,7 @@
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="62"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -3408,11 +2244,11 @@
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="68"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="12"/>
@@ -3424,9 +2260,9 @@
         <v>6</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
@@ -3434,35 +2270,35 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="62"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -3475,7 +2311,7 @@
       <c r="B38" s="16"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="62"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -3490,7 +2326,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="62"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -3500,28 +2336,28 @@
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="67"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3529,7 +2365,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="62"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -3538,11 +2374,11 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="68"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="12"/>
@@ -3554,9 +2390,9 @@
         <v>8</v>
       </c>
       <c r="B44" s="19"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="21"/>
@@ -3564,35 +2400,35 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
       <c r="B47" s="16"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="62"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3601,11 +2437,11 @@
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="68"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="12"/>
@@ -3617,9 +2453,9 @@
         <v>9</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
@@ -3627,35 +2463,35 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="67"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
       <c r="B52" s="16"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="62"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3668,7 +2504,7 @@
       <c r="B53" s="16"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="62"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3683,7 +2519,7 @@
       <c r="B54" s="16"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="62"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3693,28 +2529,28 @@
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
       <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
       <c r="M56" s="10"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3722,7 +2558,7 @@
       <c r="B57" s="16"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="62"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3731,11 +2567,11 @@
       <c r="M57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="68"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="12"/>
@@ -3747,9 +2583,9 @@
         <v>11</v>
       </c>
       <c r="B59" s="19"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="21"/>
@@ -3757,28 +2593,28 @@
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="68"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="67"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-SonDang.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-SonDang.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="OLE_LINK1" localSheetId="0">SEP!#REF!</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">SEP!$A$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -110,6 +110,172 @@
   </si>
   <si>
     <t>Dang Huy Son</t>
+  </si>
+  <si>
+    <t>21st May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement </t>
+  </si>
+  <si>
+    <t>analyze and propose requirements</t>
+  </si>
+  <si>
+    <t>25th May</t>
+  </si>
+  <si>
+    <t>27th May</t>
+  </si>
+  <si>
+    <t>analyze and propose process and WBS</t>
+  </si>
+  <si>
+    <t>28th May</t>
+  </si>
+  <si>
+    <t>doing WBS</t>
+  </si>
+  <si>
+    <t>WBS without timeline, update WBS</t>
+  </si>
+  <si>
+    <t>Made WBS without timeline.
+Prepare process</t>
+  </si>
+  <si>
+    <t>1st Jun</t>
+  </si>
+  <si>
+    <t>Analyze and develop SAD base on project of SAD course</t>
+  </si>
+  <si>
+    <t>8th Jun</t>
+  </si>
+  <si>
+    <t>9th Jun</t>
+  </si>
+  <si>
+    <t>Design draft of UI
+Analyze feature of UI</t>
+  </si>
+  <si>
+    <t>UI ver 0.1</t>
+  </si>
+  <si>
+    <t>UI ver 0.2</t>
+  </si>
+  <si>
+    <t>Design UI</t>
+  </si>
+  <si>
+    <t>10th Jun</t>
+  </si>
+  <si>
+    <t>UI ver 0.3 - 0.4</t>
+  </si>
+  <si>
+    <t>15th Jun</t>
+  </si>
+  <si>
+    <t>Ver 0.5  ver 1.0 ver 1.1</t>
+  </si>
+  <si>
+    <t>16th Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review requirement </t>
+  </si>
+  <si>
+    <t>19th Jun</t>
+  </si>
+  <si>
+    <t>Ver 1.2</t>
+  </si>
+  <si>
+    <t>23rd Jun</t>
+  </si>
+  <si>
+    <t>Review and analyze requirement for UI</t>
+  </si>
+  <si>
+    <t>ver 1.2.1</t>
+  </si>
+  <si>
+    <t>26th Jun</t>
+  </si>
+  <si>
+    <t>ver 1.3</t>
+  </si>
+  <si>
+    <t>12th Jul</t>
+  </si>
+  <si>
+    <t>Review database table</t>
+  </si>
+  <si>
+    <t>Design email class</t>
+  </si>
+  <si>
+    <t>1st Aug</t>
+  </si>
+  <si>
+    <t>Email class
+Email control class</t>
+  </si>
+  <si>
+    <t>3rd Aug</t>
+  </si>
+  <si>
+    <t>2nd Aug</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Final version</t>
+  </si>
+  <si>
+    <t>6th Aug</t>
+  </si>
+  <si>
+    <t>Update email class</t>
+  </si>
+  <si>
+    <t>9th Aug</t>
+  </si>
+  <si>
+    <t>Email
+Show booking status</t>
+  </si>
+  <si>
+    <t>7th Aug</t>
+  </si>
+  <si>
+    <t>Update SAD</t>
+  </si>
+  <si>
+    <t>Update SAD and release ver 1.0</t>
+  </si>
+  <si>
+    <t>Integrate email with program
+Show booking status in calendar
+Release ver 1.1 SAD</t>
+  </si>
+  <si>
+    <t>11th Aug</t>
+  </si>
+  <si>
+    <t>Development
+Ananlysis &amp; Design</t>
+  </si>
+  <si>
+    <t>Release ver 1.2 SAD</t>
+  </si>
+  <si>
+    <t>12th Aug</t>
+  </si>
+  <si>
+    <t>Release ver 1.3 SAD</t>
   </si>
 </sst>
 </file>
@@ -161,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,11 +420,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,30 +635,42 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -737,8 +978,8 @@
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23" style="61" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
@@ -769,7 +1010,7 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="62">
         <v>41050</v>
       </c>
     </row>
@@ -818,19 +1059,25 @@
       </c>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="55">
+    <row r="7" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A7" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E13" si="0">D7-C7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -839,17 +1086,23 @@
       </c>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="51"/>
+    <row r="8" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -858,18 +1111,26 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+    <row r="9" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A9" s="54"/>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="26">
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="L9" s="2" t="s">
@@ -877,33 +1138,47 @@
       </c>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
+    <row r="10" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A10" s="54"/>
+      <c r="B10" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="26">
+      <c r="E10" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="51"/>
+    <row r="11" spans="1:13" ht="48" thickBot="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="51" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>41</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -912,20 +1187,26 @@
       </c>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="55">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="L12" s="2" t="s">
@@ -934,17 +1215,25 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="50" t="s">
+        <v>43</v>
+      </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="L13" s="2" t="s">
@@ -953,17 +1242,25 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" s="2" t="s">
@@ -972,17 +1269,25 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="52" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26">
         <f>D15-C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" s="2" t="s">
@@ -991,16 +1296,22 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26">
         <f t="shared" ref="E16:E66" si="1">D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1010,95 +1321,136 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="58"/>
+    <row r="18" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A18" s="54"/>
+      <c r="B18" s="52" t="s">
+        <v>56</v>
+      </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26">
         <f t="shared" ref="E18" si="2">D18-C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="52" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A21" s="55"/>
+      <c r="B21" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1106,96 +1458,144 @@
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" ht="16.5" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" ht="48" thickBot="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+        <f t="shared" ref="E26" si="3">D26-C26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="F27" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="12"/>
+        <f t="shared" ref="E28" si="4">D28-C28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
@@ -1792,12 +2192,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="5">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B16:B18"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1808,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
